--- a/5/6/Stock de instrumentos de deuda del BCCh por tipo de reajustabilidad 2000 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda del BCCh por tipo de reajustabilidad 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Serie</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3609,6 +3612,20 @@
         <v>13202</v>
       </c>
     </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162">
+        <v>40269060</v>
+      </c>
+      <c r="C162">
+        <v>39876600</v>
+      </c>
+      <c r="D162">
+        <v>13189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/Stock de instrumentos de deuda del BCCh por tipo de reajustabilidad 2000 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda del BCCh por tipo de reajustabilidad 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Serie</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -872,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3626,6 +3629,20 @@
         <v>13189</v>
       </c>
     </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163">
+        <v>35180902</v>
+      </c>
+      <c r="C163">
+        <v>34786600</v>
+      </c>
+      <c r="D163">
+        <v>13172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/Stock de instrumentos de deuda del BCCh por tipo de reajustabilidad 2000 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda del BCCh por tipo de reajustabilidad 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>Serie</t>
   </si>
@@ -518,6 +518,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -875,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3643,6 +3646,20 @@
         <v>13172</v>
       </c>
     </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164">
+        <v>39370991</v>
+      </c>
+      <c r="C164">
+        <v>38975600</v>
+      </c>
+      <c r="D164">
+        <v>13141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
